--- a/docs/IMR-AmpliconSubmissionSheet_v6(your_last_name_here).xlsx
+++ b/docs/IMR-AmpliconSubmissionSheet_v6(your_last_name_here).xlsx
@@ -641,77 +641,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+      <selection activeCell="M3" sqref="M3:AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,30 +1034,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="V1" s="36" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="V1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="33" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="37"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="S2" s="7"/>
@@ -1076,35 +1076,35 @@
       <c r="AF2" s="7"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="J3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="J3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -1112,35 +1112,35 @@
       <c r="AF3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="J4" s="29" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="J4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
@@ -1149,26 +1149,26 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
@@ -1176,30 +1176,30 @@
       <c r="AF5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -1207,30 +1207,30 @@
       <c r="AF6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -1250,21 +1250,21 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -1276,33 +1276,33 @@
       <c r="C9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="19" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -1313,33 +1313,33 @@
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="19" t="s">
         <v>58</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -1350,34 +1350,34 @@
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="20" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -1407,164 +1407,164 @@
       <c r="AF12" s="7"/>
     </row>
     <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="38" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="34"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="27"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="27"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="27"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="30"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2442,12 +2442,8 @@
       <c r="M54" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+  <mergeCells count="22">
+    <mergeCell ref="M3:AA11"/>
     <mergeCell ref="C18:AA18"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A15:B15"/>
@@ -2464,6 +2460,11 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
